--- a/minda-barcoding/data/MAF_species-list.xlsx
+++ b/minda-barcoding/data/MAF_species-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user\Documents_Ubuntu\CRREST\minda-barcoding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C54DF16-B7C6-4EE0-8B92-ACF5E12A5369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A71031-E5AB-42B0-BED1-7C1D5077C1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="1954">
   <si>
     <t>Family</t>
   </si>
@@ -6254,12 +6254,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -6269,22 +6284,22 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6553,8 +6568,8 @@
   <dimension ref="A1:H772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6569,7 +6584,7 @@
     <col min="8" max="8" width="67.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6595,7 +6610,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6621,7 +6636,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -6645,7 +6660,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6669,7 +6684,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6693,7 +6708,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -6717,7 +6732,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -6741,7 +6756,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -6765,7 +6780,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -6791,7 +6806,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -6815,7 +6830,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6841,7 +6856,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -6865,7 +6880,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -6889,7 +6904,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -6915,7 +6930,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -6941,7 +6956,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -6965,7 +6980,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -6989,7 +7004,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -7015,7 +7030,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -7039,7 +7054,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -7065,7 +7080,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -7091,7 +7106,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -7115,7 +7130,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -7141,7 +7156,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -7189,7 +7204,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -7215,7 +7230,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -7241,7 +7256,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -7265,7 +7280,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -7291,7 +7306,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -7317,7 +7332,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -7341,7 +7356,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -7367,7 +7382,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -7393,7 +7408,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -7417,7 +7432,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -7441,7 +7456,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -7465,7 +7480,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -7491,7 +7506,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>106</v>
       </c>
@@ -7515,7 +7530,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
@@ -7539,7 +7554,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
@@ -7563,7 +7578,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>114</v>
       </c>
@@ -7587,7 +7602,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>114</v>
       </c>
@@ -7611,7 +7626,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>114</v>
       </c>
@@ -7637,7 +7652,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>114</v>
       </c>
@@ -7661,7 +7676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>114</v>
       </c>
@@ -7685,7 +7700,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
@@ -7709,7 +7724,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>114</v>
       </c>
@@ -7733,7 +7748,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>114</v>
       </c>
@@ -7757,7 +7772,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>120</v>
       </c>
@@ -7781,7 +7796,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>120</v>
       </c>
@@ -7807,7 +7822,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>120</v>
       </c>
@@ -7831,7 +7846,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>120</v>
       </c>
@@ -7855,7 +7870,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>120</v>
       </c>
@@ -7879,7 +7894,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
@@ -7903,7 +7918,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>120</v>
       </c>
@@ -7929,7 +7944,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>120</v>
       </c>
@@ -7953,7 +7968,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>120</v>
       </c>
@@ -7977,7 +7992,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>120</v>
       </c>
@@ -8001,7 +8016,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -8025,7 +8040,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
@@ -8049,7 +8064,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
@@ -8073,7 +8088,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>120</v>
       </c>
@@ -8097,7 +8112,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>120</v>
       </c>
@@ -8123,7 +8138,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>120</v>
       </c>
@@ -8147,7 +8162,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>120</v>
       </c>
@@ -8171,7 +8186,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>120</v>
       </c>
@@ -8195,7 +8210,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>120</v>
       </c>
@@ -8219,7 +8234,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>120</v>
       </c>
@@ -8243,7 +8258,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>120</v>
       </c>
@@ -8269,7 +8284,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>120</v>
       </c>
@@ -8293,7 +8308,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>120</v>
       </c>
@@ -8317,7 +8332,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>120</v>
       </c>
@@ -8341,7 +8356,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>166</v>
       </c>
@@ -8367,7 +8382,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>169</v>
       </c>
@@ -8391,7 +8406,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>172</v>
       </c>
@@ -8417,7 +8432,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>172</v>
       </c>
@@ -8443,7 +8458,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>172</v>
       </c>
@@ -8469,7 +8484,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
@@ -8495,7 +8510,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>172</v>
       </c>
@@ -8521,7 +8536,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>172</v>
       </c>
@@ -8547,7 +8562,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>172</v>
       </c>
@@ -8571,7 +8586,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>172</v>
       </c>
@@ -8595,7 +8610,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>172</v>
       </c>
@@ -8621,7 +8636,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
@@ -8647,7 +8662,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>172</v>
       </c>
@@ -8673,7 +8688,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>172</v>
       </c>
@@ -8697,7 +8712,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>172</v>
       </c>
@@ -8721,7 +8736,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>172</v>
       </c>
@@ -8747,7 +8762,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>172</v>
       </c>
@@ -8771,7 +8786,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>172</v>
       </c>
@@ -8795,7 +8810,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>211</v>
       </c>
@@ -8819,7 +8834,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>211</v>
       </c>
@@ -8845,7 +8860,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>211</v>
       </c>
@@ -8871,7 +8886,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>212</v>
       </c>
@@ -8897,7 +8912,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -8921,7 +8936,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -8945,7 +8960,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -8969,7 +8984,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>215</v>
       </c>
@@ -8993,7 +9008,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>215</v>
       </c>
@@ -9017,7 +9032,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>215</v>
       </c>
@@ -9041,7 +9056,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>215</v>
       </c>
@@ -9065,7 +9080,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>215</v>
       </c>
@@ -9089,7 +9104,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>215</v>
       </c>
@@ -9113,7 +9128,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>215</v>
       </c>
@@ -9139,7 +9154,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>215</v>
       </c>
@@ -9163,7 +9178,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>237</v>
       </c>
@@ -9189,7 +9204,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
@@ -9215,7 +9230,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>241</v>
       </c>
@@ -9241,7 +9256,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>241</v>
       </c>
@@ -9265,7 +9280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>247</v>
       </c>
@@ -9291,7 +9306,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>247</v>
       </c>
@@ -9317,7 +9332,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>247</v>
       </c>
@@ -9343,7 +9358,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>247</v>
       </c>
@@ -9367,7 +9382,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>247</v>
       </c>
@@ -9391,7 +9406,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>247</v>
       </c>
@@ -9417,7 +9432,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>247</v>
       </c>
@@ -9443,7 +9458,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>247</v>
       </c>
@@ -9467,7 +9482,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>270</v>
       </c>
@@ -9493,7 +9508,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>270</v>
       </c>
@@ -9517,7 +9532,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>270</v>
       </c>
@@ -9543,7 +9558,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>270</v>
       </c>
@@ -9569,7 +9584,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>270</v>
       </c>
@@ -9593,7 +9608,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>270</v>
       </c>
@@ -9619,7 +9634,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>270</v>
       </c>
@@ -9645,7 +9660,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>270</v>
       </c>
@@ -9671,7 +9686,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>270</v>
       </c>
@@ -9695,7 +9710,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>270</v>
       </c>
@@ -9719,7 +9734,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>270</v>
       </c>
@@ -9743,7 +9758,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>270</v>
       </c>
@@ -9767,7 +9782,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>270</v>
       </c>
@@ -9791,7 +9806,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>270</v>
       </c>
@@ -9817,7 +9832,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>270</v>
       </c>
@@ -9841,7 +9856,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>270</v>
       </c>
@@ -9865,7 +9880,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>270</v>
       </c>
@@ -9889,7 +9904,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>270</v>
       </c>
@@ -9913,7 +9928,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>270</v>
       </c>
@@ -9937,7 +9952,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>270</v>
       </c>
@@ -9961,7 +9976,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>270</v>
       </c>
@@ -9985,7 +10000,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>270</v>
       </c>
@@ -10009,7 +10024,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>270</v>
       </c>
@@ -10035,7 +10050,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>301</v>
       </c>
@@ -10059,7 +10074,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>301</v>
       </c>
@@ -10083,7 +10098,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>1741</v>
       </c>
@@ -10107,7 +10122,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>308</v>
       </c>
@@ -10131,7 +10146,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>308</v>
       </c>
@@ -10157,7 +10172,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>308</v>
       </c>
@@ -10183,7 +10198,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>308</v>
       </c>
@@ -10207,7 +10222,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>308</v>
       </c>
@@ -10231,7 +10246,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>308</v>
       </c>
@@ -10255,7 +10270,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>308</v>
       </c>
@@ -10281,7 +10296,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>308</v>
       </c>
@@ -10305,7 +10320,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>308</v>
       </c>
@@ -10329,7 +10344,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>308</v>
       </c>
@@ -10355,7 +10370,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>308</v>
       </c>
@@ -10381,7 +10396,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>308</v>
       </c>
@@ -10407,7 +10422,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>308</v>
       </c>
@@ -10431,7 +10446,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>308</v>
       </c>
@@ -10455,7 +10470,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>308</v>
       </c>
@@ -10479,7 +10494,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>308</v>
       </c>
@@ -10505,7 +10520,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>308</v>
       </c>
@@ -10531,7 +10546,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>308</v>
       </c>
@@ -10557,7 +10572,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>308</v>
       </c>
@@ -10581,7 +10596,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>308</v>
       </c>
@@ -10605,7 +10620,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>308</v>
       </c>
@@ -10629,7 +10644,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>308</v>
       </c>
@@ -10655,7 +10670,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>308</v>
       </c>
@@ -10679,7 +10694,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>308</v>
       </c>
@@ -10705,7 +10720,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>308</v>
       </c>
@@ -10731,7 +10746,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>308</v>
       </c>
@@ -10755,7 +10770,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>308</v>
       </c>
@@ -10781,7 +10796,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>308</v>
       </c>
@@ -10807,7 +10822,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>308</v>
       </c>
@@ -10831,7 +10846,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>308</v>
       </c>
@@ -10855,7 +10870,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>308</v>
       </c>
@@ -10879,7 +10894,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>308</v>
       </c>
@@ -10905,7 +10920,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>308</v>
       </c>
@@ -10931,7 +10946,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>308</v>
       </c>
@@ -10957,7 +10972,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>308</v>
       </c>
@@ -10981,7 +10996,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>308</v>
       </c>
@@ -11005,7 +11020,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>308</v>
       </c>
@@ -11029,7 +11044,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>308</v>
       </c>
@@ -11055,7 +11070,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>308</v>
       </c>
@@ -11081,7 +11096,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>390</v>
       </c>
@@ -11107,7 +11122,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>394</v>
       </c>
@@ -11131,7 +11146,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>394</v>
       </c>
@@ -11155,7 +11170,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>394</v>
       </c>
@@ -11179,7 +11194,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>394</v>
       </c>
@@ -11203,7 +11218,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>394</v>
       </c>
@@ -11227,7 +11242,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>394</v>
       </c>
@@ -11251,7 +11266,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>403</v>
       </c>
@@ -11277,7 +11292,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>406</v>
       </c>
@@ -11303,7 +11318,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>409</v>
       </c>
@@ -11327,7 +11342,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>409</v>
       </c>
@@ -11351,7 +11366,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>414</v>
       </c>
@@ -11377,7 +11392,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>1746</v>
       </c>
@@ -11401,7 +11416,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>1746</v>
       </c>
@@ -11425,7 +11440,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>1746</v>
       </c>
@@ -11451,7 +11466,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>1746</v>
       </c>
@@ -11475,7 +11490,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>1746</v>
       </c>
@@ -11499,7 +11514,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>418</v>
       </c>
@@ -11525,7 +11540,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>421</v>
       </c>
@@ -11549,7 +11564,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>424</v>
       </c>
@@ -11575,7 +11590,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>1752</v>
       </c>
@@ -11599,7 +11614,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>428</v>
       </c>
@@ -11623,7 +11638,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>428</v>
       </c>
@@ -11649,7 +11664,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>428</v>
       </c>
@@ -11675,7 +11690,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>428</v>
       </c>
@@ -11701,7 +11716,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>438</v>
       </c>
@@ -11725,7 +11740,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>439</v>
       </c>
@@ -11751,7 +11766,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>439</v>
       </c>
@@ -11777,7 +11792,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>439</v>
       </c>
@@ -11803,7 +11818,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>439</v>
       </c>
@@ -11827,7 +11842,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>439</v>
       </c>
@@ -11853,7 +11868,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>439</v>
       </c>
@@ -11879,7 +11894,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>439</v>
       </c>
@@ -11903,7 +11918,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>439</v>
       </c>
@@ -11929,7 +11944,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>439</v>
       </c>
@@ -11955,7 +11970,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>439</v>
       </c>
@@ -11981,7 +11996,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>439</v>
       </c>
@@ -12007,7 +12022,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>439</v>
       </c>
@@ -12033,7 +12048,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>439</v>
       </c>
@@ -12059,7 +12074,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>439</v>
       </c>
@@ -12083,7 +12098,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>439</v>
       </c>
@@ -12107,7 +12122,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>439</v>
       </c>
@@ -12133,7 +12148,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>439</v>
       </c>
@@ -12159,7 +12174,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>439</v>
       </c>
@@ -12185,7 +12200,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>439</v>
       </c>
@@ -12211,7 +12226,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>439</v>
       </c>
@@ -12237,7 +12252,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>439</v>
       </c>
@@ -12263,7 +12278,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>439</v>
       </c>
@@ -12289,7 +12304,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>439</v>
       </c>
@@ -12313,7 +12328,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>439</v>
       </c>
@@ -12339,7 +12354,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>439</v>
       </c>
@@ -12365,7 +12380,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>439</v>
       </c>
@@ -12391,7 +12406,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -12415,7 +12430,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>439</v>
       </c>
@@ -12441,7 +12456,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>439</v>
       </c>
@@ -12465,7 +12480,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>439</v>
       </c>
@@ -12491,7 +12506,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>439</v>
       </c>
@@ -12517,7 +12532,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>439</v>
       </c>
@@ -12541,7 +12556,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>439</v>
       </c>
@@ -12567,7 +12582,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>439</v>
       </c>
@@ -12591,7 +12606,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>439</v>
       </c>
@@ -12615,7 +12630,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>439</v>
       </c>
@@ -12641,7 +12656,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>439</v>
       </c>
@@ -12667,7 +12682,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>439</v>
       </c>
@@ -12693,7 +12708,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>439</v>
       </c>
@@ -12719,7 +12734,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>439</v>
       </c>
@@ -12745,7 +12760,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>439</v>
       </c>
@@ -12771,7 +12786,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>439</v>
       </c>
@@ -12797,7 +12812,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>439</v>
       </c>
@@ -12823,7 +12838,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>1755</v>
       </c>
@@ -12847,7 +12862,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>1755</v>
       </c>
@@ -12871,7 +12886,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>1755</v>
       </c>
@@ -12895,7 +12910,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>537</v>
       </c>
@@ -12919,7 +12934,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>537</v>
       </c>
@@ -12943,7 +12958,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>543</v>
       </c>
@@ -12969,7 +12984,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>543</v>
       </c>
@@ -12995,7 +13010,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>543</v>
       </c>
@@ -13021,7 +13036,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>548</v>
       </c>
@@ -13047,7 +13062,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>548</v>
       </c>
@@ -13073,7 +13088,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>548</v>
       </c>
@@ -13099,7 +13114,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>555</v>
       </c>
@@ -13123,7 +13138,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>558</v>
       </c>
@@ -13147,7 +13162,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>558</v>
       </c>
@@ -13171,7 +13186,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>558</v>
       </c>
@@ -13195,7 +13210,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>558</v>
       </c>
@@ -13219,7 +13234,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>558</v>
       </c>
@@ -13243,7 +13258,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>558</v>
       </c>
@@ -13267,7 +13282,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>558</v>
       </c>
@@ -13293,7 +13308,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>558</v>
       </c>
@@ -13317,7 +13332,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>558</v>
       </c>
@@ -13341,7 +13356,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>558</v>
       </c>
@@ -13365,7 +13380,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>558</v>
       </c>
@@ -13389,7 +13404,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>569</v>
       </c>
@@ -13415,7 +13430,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>569</v>
       </c>
@@ -13441,7 +13456,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>569</v>
       </c>
@@ -13467,7 +13482,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>569</v>
       </c>
@@ -13493,7 +13508,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>569</v>
       </c>
@@ -13517,7 +13532,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>569</v>
       </c>
@@ -13541,7 +13556,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>569</v>
       </c>
@@ -13565,7 +13580,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>569</v>
       </c>
@@ -13589,7 +13604,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>569</v>
       </c>
@@ -13615,7 +13630,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>569</v>
       </c>
@@ -13639,7 +13654,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>569</v>
       </c>
@@ -13665,7 +13680,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>569</v>
       </c>
@@ -13691,7 +13706,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>569</v>
       </c>
@@ -13717,7 +13732,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>569</v>
       </c>
@@ -13743,7 +13758,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>596</v>
       </c>
@@ -13767,7 +13782,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>596</v>
       </c>
@@ -13791,7 +13806,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>596</v>
       </c>
@@ -13815,7 +13830,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>602</v>
       </c>
@@ -13841,7 +13856,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>602</v>
       </c>
@@ -13865,7 +13880,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>602</v>
       </c>
@@ -13891,7 +13906,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>602</v>
       </c>
@@ -13915,7 +13930,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>602</v>
       </c>
@@ -13941,7 +13956,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>602</v>
       </c>
@@ -13957,7 +13972,9 @@
       <c r="E297" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F297" s="5"/>
+      <c r="F297" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G297" s="3" t="s">
         <v>9</v>
       </c>
@@ -13965,7 +13982,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>602</v>
       </c>
@@ -13989,7 +14006,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>602</v>
       </c>
@@ -14015,7 +14032,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>602</v>
       </c>
@@ -14041,7 +14058,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>602</v>
       </c>
@@ -14067,7 +14084,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>602</v>
       </c>
@@ -14091,7 +14108,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>602</v>
       </c>
@@ -14117,7 +14134,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>602</v>
       </c>
@@ -14141,7 +14158,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>602</v>
       </c>
@@ -14167,7 +14184,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>602</v>
       </c>
@@ -14193,7 +14210,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>602</v>
       </c>
@@ -14219,7 +14236,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>602</v>
       </c>
@@ -14243,7 +14260,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>602</v>
       </c>
@@ -14269,7 +14286,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>602</v>
       </c>
@@ -14293,7 +14310,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>602</v>
       </c>
@@ -14317,7 +14334,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>602</v>
       </c>
@@ -14343,7 +14360,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>602</v>
       </c>
@@ -14369,7 +14386,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>602</v>
       </c>
@@ -14395,7 +14412,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>602</v>
       </c>
@@ -14419,7 +14436,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>602</v>
       </c>
@@ -14443,7 +14460,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>659</v>
       </c>
@@ -14467,7 +14484,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>659</v>
       </c>
@@ -14491,7 +14508,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>664</v>
       </c>
@@ -14517,7 +14534,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>664</v>
       </c>
@@ -14543,7 +14560,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>664</v>
       </c>
@@ -14569,7 +14586,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>664</v>
       </c>
@@ -14593,7 +14610,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>664</v>
       </c>
@@ -14617,7 +14634,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>664</v>
       </c>
@@ -14643,7 +14660,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>664</v>
       </c>
@@ -14667,7 +14684,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>664</v>
       </c>
@@ -14691,7 +14708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>664</v>
       </c>
@@ -14715,7 +14732,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>664</v>
       </c>
@@ -14739,7 +14756,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>664</v>
       </c>
@@ -14765,7 +14782,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>664</v>
       </c>
@@ -14789,7 +14806,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>664</v>
       </c>
@@ -14813,7 +14830,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>664</v>
       </c>
@@ -14839,7 +14856,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>664</v>
       </c>
@@ -14865,7 +14882,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>664</v>
       </c>
@@ -14891,7 +14908,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>664</v>
       </c>
@@ -14917,7 +14934,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>664</v>
       </c>
@@ -14943,7 +14960,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>664</v>
       </c>
@@ -14967,7 +14984,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>664</v>
       </c>
@@ -14993,7 +15010,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>664</v>
       </c>
@@ -15019,7 +15036,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>664</v>
       </c>
@@ -15045,7 +15062,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>664</v>
       </c>
@@ -15069,7 +15086,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>664</v>
       </c>
@@ -15093,7 +15110,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>664</v>
       </c>
@@ -15117,7 +15134,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>664</v>
       </c>
@@ -15143,7 +15160,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>664</v>
       </c>
@@ -15167,7 +15184,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>664</v>
       </c>
@@ -15193,7 +15210,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>664</v>
       </c>
@@ -15219,7 +15236,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>664</v>
       </c>
@@ -15243,7 +15260,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>664</v>
       </c>
@@ -15267,7 +15284,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>664</v>
       </c>
@@ -15293,7 +15310,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>664</v>
       </c>
@@ -15319,7 +15336,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>664</v>
       </c>
@@ -15345,7 +15362,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>664</v>
       </c>
@@ -15371,7 +15388,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>664</v>
       </c>
@@ -15397,7 +15414,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>664</v>
       </c>
@@ -15421,7 +15438,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>664</v>
       </c>
@@ -15445,7 +15462,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>664</v>
       </c>
@@ -15469,7 +15486,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>664</v>
       </c>
@@ -15493,7 +15510,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>664</v>
       </c>
@@ -15519,7 +15536,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>664</v>
       </c>
@@ -15543,7 +15560,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>664</v>
       </c>
@@ -15567,7 +15584,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>664</v>
       </c>
@@ -15591,7 +15608,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>664</v>
       </c>
@@ -15615,7 +15632,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>664</v>
       </c>
@@ -15641,7 +15658,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>664</v>
       </c>
@@ -15665,7 +15682,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>664</v>
       </c>
@@ -15691,7 +15708,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>664</v>
       </c>
@@ -15715,7 +15732,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>664</v>
       </c>
@@ -15741,7 +15758,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>664</v>
       </c>
@@ -15765,7 +15782,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>664</v>
       </c>
@@ -15791,7 +15808,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>664</v>
       </c>
@@ -15817,7 +15834,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>664</v>
       </c>
@@ -15841,7 +15858,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>664</v>
       </c>
@@ -15865,7 +15882,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>664</v>
       </c>
@@ -15891,7 +15908,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>664</v>
       </c>
@@ -15917,7 +15934,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>664</v>
       </c>
@@ -15941,7 +15958,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>664</v>
       </c>
@@ -15965,7 +15982,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>664</v>
       </c>
@@ -15989,7 +16006,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>664</v>
       </c>
@@ -16015,7 +16032,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>664</v>
       </c>
@@ -16041,7 +16058,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>664</v>
       </c>
@@ -16067,7 +16084,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>664</v>
       </c>
@@ -16091,7 +16108,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>664</v>
       </c>
@@ -16117,7 +16134,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>664</v>
       </c>
@@ -16141,7 +16158,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>664</v>
       </c>
@@ -16165,7 +16182,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>664</v>
       </c>
@@ -16191,7 +16208,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>664</v>
       </c>
@@ -16215,7 +16232,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>664</v>
       </c>
@@ -16239,7 +16256,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>664</v>
       </c>
@@ -16263,7 +16280,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>664</v>
       </c>
@@ -16287,7 +16304,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>664</v>
       </c>
@@ -16311,7 +16328,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>664</v>
       </c>
@@ -16337,7 +16354,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>664</v>
       </c>
@@ -16361,7 +16378,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>664</v>
       </c>
@@ -16387,7 +16404,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>664</v>
       </c>
@@ -16413,7 +16430,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>664</v>
       </c>
@@ -16439,7 +16456,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>664</v>
       </c>
@@ -16463,7 +16480,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>664</v>
       </c>
@@ -16489,7 +16506,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>664</v>
       </c>
@@ -16515,7 +16532,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>664</v>
       </c>
@@ -16541,7 +16558,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>664</v>
       </c>
@@ -16567,7 +16584,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>664</v>
       </c>
@@ -16593,7 +16610,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>664</v>
       </c>
@@ -16619,7 +16636,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>664</v>
       </c>
@@ -16645,7 +16662,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>664</v>
       </c>
@@ -16669,7 +16686,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>664</v>
       </c>
@@ -16693,7 +16710,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>664</v>
       </c>
@@ -16717,7 +16734,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>664</v>
       </c>
@@ -16741,7 +16758,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>664</v>
       </c>
@@ -16765,7 +16782,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>664</v>
       </c>
@@ -16791,7 +16808,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>664</v>
       </c>
@@ -16815,7 +16832,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>664</v>
       </c>
@@ -16841,7 +16858,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>664</v>
       </c>
@@ -16867,7 +16884,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>664</v>
       </c>
@@ -16891,7 +16908,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>664</v>
       </c>
@@ -16917,7 +16934,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>664</v>
       </c>
@@ -16943,7 +16960,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>664</v>
       </c>
@@ -16967,7 +16984,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>664</v>
       </c>
@@ -16991,7 +17008,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>664</v>
       </c>
@@ -17017,7 +17034,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>664</v>
       </c>
@@ -17041,7 +17058,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>664</v>
       </c>
@@ -17067,7 +17084,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>664</v>
       </c>
@@ -17093,7 +17110,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>664</v>
       </c>
@@ -17117,7 +17134,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>664</v>
       </c>
@@ -17141,7 +17158,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>664</v>
       </c>
@@ -17167,7 +17184,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>664</v>
       </c>
@@ -17193,7 +17210,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>664</v>
       </c>
@@ -17217,7 +17234,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>664</v>
       </c>
@@ -17241,7 +17258,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>664</v>
       </c>
@@ -17265,7 +17282,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>664</v>
       </c>
@@ -17289,7 +17306,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>664</v>
       </c>
@@ -17315,7 +17332,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>664</v>
       </c>
@@ -17341,7 +17358,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>664</v>
       </c>
@@ -17365,7 +17382,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>664</v>
       </c>
@@ -17391,7 +17408,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>664</v>
       </c>
@@ -17417,7 +17434,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>664</v>
       </c>
@@ -17443,7 +17460,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>664</v>
       </c>
@@ -17469,7 +17486,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>664</v>
       </c>
@@ -17495,7 +17512,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>664</v>
       </c>
@@ -17521,7 +17538,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>664</v>
       </c>
@@ -17547,7 +17564,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>664</v>
       </c>
@@ -17571,7 +17588,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>664</v>
       </c>
@@ -17595,7 +17612,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>664</v>
       </c>
@@ -17619,7 +17636,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>664</v>
       </c>
@@ -17645,7 +17662,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>904</v>
       </c>
@@ -17671,7 +17688,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>907</v>
       </c>
@@ -17697,7 +17714,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>907</v>
       </c>
@@ -17721,7 +17738,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>907</v>
       </c>
@@ -17745,7 +17762,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>907</v>
       </c>
@@ -17769,7 +17786,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>907</v>
       </c>
@@ -17795,7 +17812,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>917</v>
       </c>
@@ -17821,7 +17838,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>917</v>
       </c>
@@ -17847,7 +17864,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>917</v>
       </c>
@@ -17873,7 +17890,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>917</v>
       </c>
@@ -17897,7 +17914,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>917</v>
       </c>
@@ -17923,7 +17940,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>917</v>
       </c>
@@ -17949,7 +17966,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>917</v>
       </c>
@@ -17975,7 +17992,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>917</v>
       </c>
@@ -18001,7 +18018,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>917</v>
       </c>
@@ -18027,7 +18044,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>917</v>
       </c>
@@ -18053,7 +18070,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>917</v>
       </c>
@@ -18079,7 +18096,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>917</v>
       </c>
@@ -18105,7 +18122,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>917</v>
       </c>
@@ -18131,7 +18148,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>917</v>
       </c>
@@ -18155,7 +18172,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>917</v>
       </c>
@@ -18181,7 +18198,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>917</v>
       </c>
@@ -18207,7 +18224,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>917</v>
       </c>
@@ -18233,7 +18250,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>917</v>
       </c>
@@ -18259,7 +18276,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>955</v>
       </c>
@@ -18283,7 +18300,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>955</v>
       </c>
@@ -18309,7 +18326,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>955</v>
       </c>
@@ -18333,7 +18350,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>955</v>
       </c>
@@ -18359,7 +18376,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>955</v>
       </c>
@@ -18383,7 +18400,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>963</v>
       </c>
@@ -18407,7 +18424,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>963</v>
       </c>
@@ -18433,7 +18450,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>966</v>
       </c>
@@ -18457,7 +18474,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>966</v>
       </c>
@@ -18483,7 +18500,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>966</v>
       </c>
@@ -18509,7 +18526,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>966</v>
       </c>
@@ -18535,7 +18552,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>966</v>
       </c>
@@ -18561,7 +18578,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>966</v>
       </c>
@@ -18587,7 +18604,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>966</v>
       </c>
@@ -18613,7 +18630,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>966</v>
       </c>
@@ -18637,7 +18654,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>966</v>
       </c>
@@ -18663,7 +18680,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>966</v>
       </c>
@@ -18687,7 +18704,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>966</v>
       </c>
@@ -18713,7 +18730,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>966</v>
       </c>
@@ -18739,7 +18756,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>966</v>
       </c>
@@ -18765,7 +18782,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>966</v>
       </c>
@@ -18791,7 +18808,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>966</v>
       </c>
@@ -18817,7 +18834,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>966</v>
       </c>
@@ -18843,7 +18860,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>966</v>
       </c>
@@ -18869,7 +18886,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>966</v>
       </c>
@@ -18893,7 +18910,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>966</v>
       </c>
@@ -18919,7 +18936,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>966</v>
       </c>
@@ -18945,7 +18962,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>966</v>
       </c>
@@ -18971,7 +18988,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>966</v>
       </c>
@@ -18997,7 +19014,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>966</v>
       </c>
@@ -19023,7 +19040,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>966</v>
       </c>
@@ -19049,7 +19066,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>966</v>
       </c>
@@ -19075,7 +19092,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>966</v>
       </c>
@@ -19101,7 +19118,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>966</v>
       </c>
@@ -19127,7 +19144,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>966</v>
       </c>
@@ -19151,7 +19168,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>966</v>
       </c>
@@ -19177,7 +19194,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>966</v>
       </c>
@@ -19201,7 +19218,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>966</v>
       </c>
@@ -19227,7 +19244,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>966</v>
       </c>
@@ -19253,7 +19270,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>966</v>
       </c>
@@ -19279,7 +19296,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>966</v>
       </c>
@@ -19305,7 +19322,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>966</v>
       </c>
@@ -19331,7 +19348,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>966</v>
       </c>
@@ -19357,7 +19374,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>966</v>
       </c>
@@ -19383,7 +19400,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
         <v>966</v>
       </c>
@@ -19407,7 +19424,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
         <v>1048</v>
       </c>
@@ -19431,7 +19448,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
         <v>1048</v>
       </c>
@@ -19455,7 +19472,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
         <v>1048</v>
       </c>
@@ -19481,7 +19498,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
         <v>1048</v>
       </c>
@@ -19507,7 +19524,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>1605</v>
       </c>
@@ -19531,7 +19548,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19555,7 +19572,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19579,7 +19596,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19605,7 +19622,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19629,7 +19646,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19653,7 +19670,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19679,7 +19696,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19703,7 +19720,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19727,7 +19744,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19751,7 +19768,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19775,7 +19792,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19801,7 +19818,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19825,7 +19842,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>1082</v>
       </c>
@@ -19851,7 +19868,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>1085</v>
       </c>
@@ -19875,7 +19892,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>1085</v>
       </c>
@@ -19899,7 +19916,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>1085</v>
       </c>
@@ -19923,7 +19940,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>1085</v>
       </c>
@@ -19947,7 +19964,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>1085</v>
       </c>
@@ -19973,7 +19990,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>1095</v>
       </c>
@@ -19999,7 +20016,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20023,7 +20040,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20049,7 +20066,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20075,7 +20092,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20101,7 +20118,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20127,7 +20144,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20153,7 +20170,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20179,7 +20196,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20205,7 +20222,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20231,7 +20248,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20257,7 +20274,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20283,7 +20300,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20307,7 +20324,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20331,7 +20348,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20357,7 +20374,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20383,7 +20400,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>1095</v>
       </c>
@@ -20409,7 +20426,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>1132</v>
       </c>
@@ -20433,7 +20450,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>1132</v>
       </c>
@@ -20457,7 +20474,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>1132</v>
       </c>
@@ -20481,7 +20498,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>1132</v>
       </c>
@@ -20505,7 +20522,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>1132</v>
       </c>
@@ -20529,7 +20546,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>1132</v>
       </c>
@@ -20555,7 +20572,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>1132</v>
       </c>
@@ -20579,7 +20596,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
         <v>1610</v>
       </c>
@@ -20603,7 +20620,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20627,7 +20644,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20653,7 +20670,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20679,7 +20696,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20705,7 +20722,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20731,7 +20748,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20757,7 +20774,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20783,7 +20800,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20809,7 +20826,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20833,7 +20850,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20859,7 +20876,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20885,7 +20902,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20911,7 +20928,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20937,7 +20954,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20961,7 +20978,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
         <v>1141</v>
       </c>
@@ -20987,7 +21004,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21011,7 +21028,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21035,7 +21052,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21061,7 +21078,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21087,7 +21104,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21113,7 +21130,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21139,7 +21156,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21165,7 +21182,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21191,7 +21208,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21215,7 +21232,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21241,7 +21258,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21265,7 +21282,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21289,7 +21306,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21313,7 +21330,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
         <v>1203</v>
       </c>
@@ -21339,7 +21356,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
         <v>1203</v>
       </c>
@@ -21365,7 +21382,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
         <v>1798</v>
       </c>
@@ -21389,7 +21406,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
         <v>1209</v>
       </c>
@@ -21415,7 +21432,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
         <v>1213</v>
       </c>
@@ -21439,7 +21456,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
         <v>1215</v>
       </c>
@@ -21463,7 +21480,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
         <v>1216</v>
       </c>
@@ -21489,7 +21506,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
         <v>1613</v>
       </c>
@@ -21513,7 +21530,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
         <v>1219</v>
       </c>
@@ -21537,7 +21554,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
         <v>1222</v>
       </c>
@@ -21561,7 +21578,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
         <v>1222</v>
       </c>
@@ -21585,7 +21602,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
         <v>1222</v>
       </c>
@@ -21609,7 +21626,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
         <v>1222</v>
       </c>
@@ -21633,7 +21650,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
         <v>1230</v>
       </c>
@@ -21659,7 +21676,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
         <v>1230</v>
       </c>
@@ -21683,7 +21700,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
         <v>1230</v>
       </c>
@@ -21707,7 +21724,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
         <v>1230</v>
       </c>
@@ -21731,7 +21748,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
         <v>1235</v>
       </c>
@@ -21755,7 +21772,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
         <v>1239</v>
       </c>
@@ -21779,7 +21796,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
         <v>1239</v>
       </c>
@@ -21803,7 +21820,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
         <v>1239</v>
       </c>
@@ -21829,7 +21846,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21853,7 +21870,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21879,7 +21896,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21903,7 +21920,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21927,7 +21944,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21951,7 +21968,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21977,7 +21994,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
         <v>1245</v>
       </c>
@@ -22001,7 +22018,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
         <v>1245</v>
       </c>
@@ -22025,7 +22042,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
         <v>1245</v>
       </c>
@@ -22051,7 +22068,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
         <v>1245</v>
       </c>
@@ -22075,7 +22092,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
         <v>1245</v>
       </c>
@@ -22099,7 +22116,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
         <v>1245</v>
       </c>
@@ -22125,7 +22142,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22149,7 +22166,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22175,7 +22192,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22199,7 +22216,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22225,7 +22242,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22251,7 +22268,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22277,7 +22294,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22303,7 +22320,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22327,7 +22344,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22351,7 +22368,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22377,7 +22394,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22401,7 +22418,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22425,7 +22442,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22449,7 +22466,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22475,7 +22492,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22499,7 +22516,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22523,7 +22540,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22547,7 +22564,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22571,7 +22588,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22595,7 +22612,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22619,7 +22636,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22645,7 +22662,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22669,7 +22686,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22693,7 +22710,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22719,7 +22736,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22743,7 +22760,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22767,7 +22784,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22791,7 +22808,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22815,7 +22832,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22839,7 +22856,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22863,7 +22880,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22887,7 +22904,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22911,7 +22928,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22935,7 +22952,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22959,7 +22976,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
         <v>1267</v>
       </c>
@@ -22985,7 +23002,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23011,7 +23028,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23035,7 +23052,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23061,7 +23078,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23085,7 +23102,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23111,7 +23128,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23135,7 +23152,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23159,7 +23176,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23183,7 +23200,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23207,7 +23224,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23231,7 +23248,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23255,7 +23272,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23279,7 +23296,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23303,7 +23320,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23327,7 +23344,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23351,7 +23368,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23375,7 +23392,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23399,7 +23416,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23423,7 +23440,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23447,7 +23464,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23471,7 +23488,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23495,7 +23512,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23519,7 +23536,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23543,7 +23560,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23567,7 +23584,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23593,7 +23610,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23617,7 +23634,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23641,7 +23658,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23665,7 +23682,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23689,7 +23706,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23713,7 +23730,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23737,7 +23754,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23761,7 +23778,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23785,7 +23802,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23809,7 +23826,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23833,7 +23850,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
         <v>1267</v>
       </c>
@@ -23857,7 +23874,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
         <v>1409</v>
       </c>
@@ -23883,7 +23900,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
         <v>1409</v>
       </c>
@@ -23909,7 +23926,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
         <v>1409</v>
       </c>
@@ -23933,7 +23950,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
         <v>1409</v>
       </c>
@@ -23957,7 +23974,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
         <v>1409</v>
       </c>
@@ -23983,7 +24000,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
         <v>1409</v>
       </c>
@@ -24007,7 +24024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
         <v>1409</v>
       </c>
@@ -24031,7 +24048,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
         <v>1422</v>
       </c>
@@ -24055,7 +24072,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
         <v>1425</v>
       </c>
@@ -24079,7 +24096,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
         <v>1429</v>
       </c>
@@ -24103,7 +24120,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
         <v>1433</v>
       </c>
@@ -24127,7 +24144,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
         <v>1436</v>
       </c>
@@ -24153,7 +24170,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
         <v>1439</v>
       </c>
@@ -24177,7 +24194,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24201,7 +24218,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24225,7 +24242,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24249,7 +24266,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24273,7 +24290,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24299,7 +24316,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24323,7 +24340,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24347,7 +24364,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24371,7 +24388,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24397,7 +24414,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24421,7 +24438,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
         <v>1442</v>
       </c>
@@ -24445,7 +24462,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24469,7 +24486,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24493,7 +24510,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24517,7 +24534,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24541,7 +24558,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24565,7 +24582,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24589,7 +24606,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24615,7 +24632,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24639,7 +24656,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24665,7 +24682,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
         <v>1452</v>
       </c>
@@ -24689,7 +24706,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
         <v>1464</v>
       </c>
@@ -24715,7 +24732,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24741,7 +24758,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24767,7 +24784,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24793,7 +24810,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24819,7 +24836,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24843,7 +24860,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24869,7 +24886,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24895,7 +24912,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24921,7 +24938,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24947,7 +24964,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24973,7 +24990,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
         <v>1468</v>
       </c>
@@ -24999,7 +25016,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
         <v>1468</v>
       </c>
@@ -25025,7 +25042,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="3" t="s">
         <v>1468</v>
       </c>
@@ -25049,7 +25066,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="3" t="s">
         <v>1468</v>
       </c>
@@ -25075,7 +25092,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="3" t="s">
         <v>1502</v>
       </c>
@@ -25099,7 +25116,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
         <v>1505</v>
       </c>
@@ -25123,7 +25140,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
         <v>1505</v>
       </c>
@@ -25147,7 +25164,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
         <v>1505</v>
       </c>
@@ -25171,7 +25188,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
         <v>1511</v>
       </c>
@@ -25197,7 +25214,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="3" t="s">
         <v>1511</v>
       </c>
@@ -25223,7 +25240,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="3" t="s">
         <v>1518</v>
       </c>
@@ -25247,7 +25264,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="3" t="s">
         <v>1518</v>
       </c>
@@ -25271,7 +25288,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25297,7 +25314,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25323,7 +25340,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25347,7 +25364,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25371,7 +25388,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25395,7 +25412,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25419,7 +25436,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25445,7 +25462,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
         <v>1524</v>
       </c>
@@ -25469,7 +25486,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
         <v>1534</v>
       </c>
@@ -25495,7 +25512,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
         <v>1534</v>
       </c>
@@ -25519,7 +25536,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25543,7 +25560,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25567,7 +25584,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25591,7 +25608,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25615,7 +25632,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25639,7 +25656,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25663,7 +25680,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25687,7 +25704,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="3" t="s">
         <v>1552</v>
       </c>
@@ -25713,7 +25730,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="3" t="s">
         <v>1556</v>
       </c>
@@ -25737,7 +25754,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
         <v>1629</v>
       </c>
@@ -25761,7 +25778,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="3" t="s">
         <v>1559</v>
       </c>
@@ -25787,7 +25804,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
         <v>1562</v>
       </c>
